--- a/models/dft/rc/parameters.xlsx
+++ b/models/dft/rc/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -44,12 +44,73 @@
   </si>
   <si>
     <t>sA_1</t>
+  </si>
+  <si>
+    <t>sB_1</t>
+  </si>
+  <si>
+    <t>sC_1</t>
+  </si>
+  <si>
+    <t>sD_1</t>
+  </si>
+  <si>
+    <t>sw_1</t>
+  </si>
+  <si>
+    <t>mP_1</t>
+  </si>
+  <si>
+    <t>mS_1</t>
+  </si>
+  <si>
+    <t>A_11</t>
+  </si>
+  <si>
+    <t>A_12</t>
+  </si>
+  <si>
+    <t>A_1S</t>
+  </si>
+  <si>
+    <t>M_1_1</t>
+  </si>
+  <si>
+    <t>M_1_2</t>
+  </si>
+  <si>
+    <t>M_1_3</t>
+  </si>
+  <si>
+    <t>M_1_4</t>
+  </si>
+  <si>
+    <t>M_1_5</t>
+  </si>
+  <si>
+    <t>BUS_11</t>
+  </si>
+  <si>
+    <t>BUS_12</t>
+  </si>
+  <si>
+    <t>HW_1</t>
+  </si>
+  <si>
+    <t>SW_1</t>
+  </si>
+  <si>
+    <t>MIU1_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,67 +456,362 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.05</v>
       </c>
-      <c r="D2" s="1">
-        <v>3.0000000000000001E-5</v>
+      <c r="D2" s="2">
+        <f>C2/10</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D22" si="0">C3/10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -463,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:C85"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,6 +848,91 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models/dft/rc/parameters.xlsx
+++ b/models/dft/rc/parameters.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +39,6 @@
     <t>inverse</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>sA_1</t>
   </si>
   <si>
@@ -64,36 +60,6 @@
     <t>mS_1</t>
   </si>
   <si>
-    <t>A_11</t>
-  </si>
-  <si>
-    <t>A_12</t>
-  </si>
-  <si>
-    <t>A_1S</t>
-  </si>
-  <si>
-    <t>M_1_1</t>
-  </si>
-  <si>
-    <t>M_1_2</t>
-  </si>
-  <si>
-    <t>M_1_3</t>
-  </si>
-  <si>
-    <t>M_1_4</t>
-  </si>
-  <si>
-    <t>M_1_5</t>
-  </si>
-  <si>
-    <t>BUS_11</t>
-  </si>
-  <si>
-    <t>BUS_12</t>
-  </si>
-  <si>
     <t>HW_1</t>
   </si>
   <si>
@@ -101,6 +67,15 @@
   </si>
   <si>
     <t>MIU1_1</t>
+  </si>
+  <si>
+    <t>M_1</t>
+  </si>
+  <si>
+    <t>BUS_1</t>
+  </si>
+  <si>
+    <t>A_1</t>
   </si>
 </sst>
 </file>
@@ -108,8 +83,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -142,8 +117,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +426,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -469,7 +444,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -478,7 +453,7 @@
         <v>0.05</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D22" si="0">C3/10</f>
+        <f t="shared" ref="D3:D14" si="0">C3/10</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" t="b">
@@ -487,7 +462,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -505,7 +480,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -523,7 +498,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -541,7 +516,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -559,7 +534,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -577,7 +552,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -595,17 +570,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>1E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -613,17 +588,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -631,17 +606,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>6.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>6.0000000000000002E-6</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -649,7 +624,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -667,271 +642,25 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>6.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>6.0000000000000002E-6</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
